--- a/biology/Médecine/Fosse_condylaire/Fosse_condylaire.xlsx
+++ b/biology/Médecine/Fosse_condylaire/Fosse_condylaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fosses condylaires (ou fosses condyliennes ou fossettes condyliennes postérieures) sont deux dépressions osseuses situées sur la face externe des parties latérales de l'os occipital.
 Elles sont situées en arrière des condyles occipitaux. Dans le fond de ces fosses s'ouvre le canal condylaire permettant le passage d'une veine émissaire du sinus transverse de la dure-mère.
